--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.781500000000001</v>
+        <v>8.861700000000004</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.87729999999999</v>
+        <v>-21.85829999999998</v>
       </c>
       <c r="B9" t="n">
-        <v>6.259300000000004</v>
+        <v>6.280200000000004</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.5697</v>
+        <v>-12.4211</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.09090000000001</v>
+        <v>-22.11470000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.35779999999999</v>
+        <v>-20.46889999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.0473</v>
+        <v>9.037399999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>4.977499999999999</v>
+        <v>5.0712</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.3415</v>
+        <v>5.293800000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.8933</v>
+        <v>-21.87769999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.4223</v>
+        <v>-12.47750000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.634200000000007</v>
+        <v>9.735100000000006</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.683100000000007</v>
+        <v>8.715000000000009</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.90830000000001</v>
+        <v>-11.5116</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.96059999999999</v>
+        <v>-13.86499999999998</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.260000000000003</v>
+        <v>5.956700000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.43859999999999</v>
+        <v>-11.5911</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.618599999999998</v>
+        <v>5.599499999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.96699999999999</v>
+        <v>-13.98859999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.18809999999999</v>
+        <v>-10.01259999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.862499999999995</v>
+        <v>6.122199999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.700500000000002</v>
+        <v>5.854400000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63919999999998</v>
+        <v>-21.6484</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.56379999999999</v>
+        <v>-19.59089999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.639299999999997</v>
+        <v>9.735399999999998</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.66690000000001</v>
+        <v>-21.74260000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.46539999999999</v>
+        <v>-10.44919999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.5213</v>
+        <v>5.735300000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
